--- a/Proyecto.Data/Scripts/tab_acfa_boys_z_3_5.xlsx
+++ b/Proyecto.Data/Scripts/tab_acfa_boys_z_3_5.xlsx
@@ -53,6 +53,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -531,9 +536,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -878,42 +885,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="11.42578125" style="2"/>
+    <col min="5" max="11" width="11.42578125" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -921,34 +935,34 @@
       <c r="A2">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.39279999999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>134817</v>
-      </c>
-      <c r="D2">
+        <v>13.4817</v>
+      </c>
+      <c r="D2" s="2">
         <v>7.4749999999999997E-2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>10.7</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>11.6</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>12.5</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>13.5</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>14.5</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>15.6</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>16.7</v>
       </c>
     </row>
@@ -956,34 +970,34 @@
       <c r="A3">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.34749999999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>138097</v>
-      </c>
-      <c r="D3">
+        <v>13.809699999999999</v>
+      </c>
+      <c r="D3" s="2">
         <v>7.5230000000000005E-2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>10.9</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>11.8</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>12.8</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>13.8</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>14.9</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>16</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>17.2</v>
       </c>
     </row>
@@ -991,34 +1005,34 @@
       <c r="A4">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.30919999999999997</v>
       </c>
       <c r="C4" s="1">
-        <v>140585</v>
-      </c>
-      <c r="D4">
+        <v>14.0585</v>
+      </c>
+      <c r="D4" s="2">
         <v>7.5660000000000005E-2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>11.1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>13</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>14.1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>15.2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>16.3</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>17.5</v>
       </c>
     </row>
@@ -1026,34 +1040,34 @@
       <c r="A5">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.27550000000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>142389</v>
-      </c>
-      <c r="D5">
+        <v>14.238899999999999</v>
+      </c>
+      <c r="D5" s="2">
         <v>7.6009999999999994E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>11.3</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>12.2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>13.2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>14.2</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>15.4</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>16.5</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>17.8</v>
       </c>
     </row>
@@ -1061,34 +1075,34 @@
       <c r="A6">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.24529999999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>143678</v>
-      </c>
-      <c r="D6">
+        <v>14.367800000000001</v>
+      </c>
+      <c r="D6" s="2">
         <v>7.6289999999999997E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>11.4</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>12.3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>13.3</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>14.4</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>15.5</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>16.7</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>18</v>
       </c>
     </row>
@@ -1096,34 +1110,34 @@
       <c r="A7">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0.21790000000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>144591</v>
-      </c>
-      <c r="D7">
+        <v>14.459099999999999</v>
+      </c>
+      <c r="D7" s="2">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>11.4</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>12.4</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>13.4</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>14.5</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>15.6</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>16.8</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>18.100000000000001</v>
       </c>
     </row>
@@ -1131,34 +1145,34 @@
       <c r="A8">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>0.1925</v>
       </c>
       <c r="C8" s="1">
-        <v>145245</v>
-      </c>
-      <c r="D8">
+        <v>14.5245</v>
+      </c>
+      <c r="D8" s="2">
         <v>7.6649999999999996E-2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>11.5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>12.4</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>13.4</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>14.5</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>15.7</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>16.899999999999999</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>18.2</v>
       </c>
     </row>
@@ -1166,34 +1180,34 @@
       <c r="A9">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>0.16900000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>145733</v>
-      </c>
-      <c r="D9">
+        <v>14.5733</v>
+      </c>
+      <c r="D9" s="2">
         <v>7.6759999999999995E-2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>11.5</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>12.5</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>13.5</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>14.6</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>15.7</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>17</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>18.3</v>
       </c>
     </row>
@@ -1201,34 +1215,34 @@
       <c r="A10">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>0.1469</v>
       </c>
       <c r="C10" s="1">
-        <v>146119</v>
-      </c>
-      <c r="D10">
+        <v>14.6119</v>
+      </c>
+      <c r="D10" s="2">
         <v>7.6829999999999996E-2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>11.6</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>12.5</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>13.5</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>14.6</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>15.8</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>17</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>18.3</v>
       </c>
     </row>
@@ -1236,34 +1250,34 @@
       <c r="A11">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>0.12609999999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>146449</v>
-      </c>
-      <c r="D11">
+        <v>14.6449</v>
+      </c>
+      <c r="D11" s="2">
         <v>7.689E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>11.6</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>12.5</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>13.6</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>14.6</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>15.8</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>17.100000000000001</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -1271,34 +1285,34 @@
       <c r="A12">
         <v>13</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>0.10639999999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>146758</v>
-      </c>
-      <c r="D12">
+        <v>14.675800000000001</v>
+      </c>
+      <c r="D12" s="2">
         <v>7.6939999999999995E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>11.6</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>12.6</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>13.6</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>14.7</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>15.8</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>17.100000000000001</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -1306,34 +1320,34 @@
       <c r="A13">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>8.7599999999999997E-2</v>
       </c>
       <c r="C13" s="1">
-        <v>147063</v>
-      </c>
-      <c r="D13">
+        <v>14.706300000000001</v>
+      </c>
+      <c r="D13" s="2">
         <v>7.6990000000000003E-2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>11.6</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>12.6</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>13.6</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>14.7</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>15.9</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>17.100000000000001</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>18.5</v>
       </c>
     </row>
@@ -1341,34 +1355,34 @@
       <c r="A14">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>6.9699999999999998E-2</v>
       </c>
       <c r="C14" s="1">
-        <v>147380</v>
-      </c>
-      <c r="D14">
+        <v>14.738</v>
+      </c>
+      <c r="D14" s="2">
         <v>7.7030000000000001E-2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>11.7</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>12.6</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>13.6</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>14.7</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>15.9</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>17.2</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>18.5</v>
       </c>
     </row>
@@ -1376,34 +1390,34 @@
       <c r="A15">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>5.2600000000000001E-2</v>
       </c>
       <c r="C15" s="1">
-        <v>147723</v>
-      </c>
-      <c r="D15">
+        <v>14.7723</v>
+      </c>
+      <c r="D15" s="2">
         <v>7.707E-2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>11.7</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>12.7</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>13.7</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>14.8</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>16</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>17.2</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>18.600000000000001</v>
       </c>
     </row>
@@ -1411,34 +1425,34 @@
       <c r="A16">
         <v>17</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>3.6200000000000003E-2</v>
       </c>
       <c r="C16" s="1">
-        <v>148095</v>
-      </c>
-      <c r="D16">
+        <v>14.8095</v>
+      </c>
+      <c r="D16" s="2">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>11.7</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>12.7</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>13.7</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>14.8</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>16</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>17.3</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>18.600000000000001</v>
       </c>
     </row>
@@ -1446,34 +1460,34 @@
       <c r="A17">
         <v>18</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>2.0400000000000001E-2</v>
       </c>
       <c r="C17" s="1">
-        <v>148496</v>
-      </c>
-      <c r="D17">
+        <v>14.849600000000001</v>
+      </c>
+      <c r="D17" s="2">
         <v>7.7130000000000004E-2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>11.8</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>12.7</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>13.7</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>14.8</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>16</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>17.3</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <v>18.7</v>
       </c>
     </row>
@@ -1481,34 +1495,34 @@
       <c r="A18">
         <v>19</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>5.1000000000000004E-3</v>
       </c>
       <c r="C18" s="1">
-        <v>148926</v>
-      </c>
-      <c r="D18">
+        <v>14.8926</v>
+      </c>
+      <c r="D18" s="2">
         <v>7.7170000000000002E-2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>11.8</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>12.8</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>13.8</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>14.9</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>17.399999999999999</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <v>18.8</v>
       </c>
     </row>
@@ -1516,34 +1530,34 @@
       <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>-9.7000000000000003E-3</v>
       </c>
       <c r="C19" s="1">
-        <v>149388</v>
-      </c>
-      <c r="D19">
+        <v>14.938800000000001</v>
+      </c>
+      <c r="D19" s="2">
         <v>7.7210000000000001E-2</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>11.9</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>12.8</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>13.8</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>14.9</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>17.399999999999999</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <v>18.8</v>
       </c>
     </row>
@@ -1551,34 +1565,34 @@
       <c r="A20">
         <v>21</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>-2.3900000000000001E-2</v>
       </c>
       <c r="C20" s="1">
-        <v>149883</v>
-      </c>
-      <c r="D20">
+        <v>14.988300000000001</v>
+      </c>
+      <c r="D20" s="2">
         <v>7.7249999999999999E-2</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>11.9</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>12.8</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>13.9</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>15</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>16.2</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>17.5</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <v>18.899999999999999</v>
       </c>
     </row>
@@ -1586,34 +1600,34 @@
       <c r="A21">
         <v>22</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>-3.78E-2</v>
       </c>
       <c r="C21" s="1">
-        <v>150410</v>
-      </c>
-      <c r="D21">
+        <v>15.041</v>
+      </c>
+      <c r="D21" s="2">
         <v>7.7310000000000004E-2</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>11.9</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>12.9</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>13.9</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>15</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>16.3</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <v>19</v>
       </c>
     </row>
@@ -1621,34 +1635,34 @@
       <c r="A22">
         <v>23</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>-5.1200000000000002E-2</v>
       </c>
       <c r="C22" s="1">
-        <v>150964</v>
-      </c>
-      <c r="D22">
+        <v>15.096399999999999</v>
+      </c>
+      <c r="D22" s="2">
         <v>7.7380000000000004E-2</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>12</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>12.9</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>14</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>15.1</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>16.3</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <v>19.100000000000001</v>
       </c>
     </row>
@@ -1656,34 +1670,34 @@
       <c r="A23">
         <v>24</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>-6.4299999999999996E-2</v>
       </c>
       <c r="C23" s="1">
-        <v>151536</v>
-      </c>
-      <c r="D23">
+        <v>15.153600000000001</v>
+      </c>
+      <c r="D23" s="2">
         <v>7.7460000000000001E-2</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>12</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>13</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>14</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>15.2</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>16.399999999999999</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>17.7</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="3">
         <v>19.2</v>
       </c>
     </row>
@@ -1691,34 +1705,34 @@
       <c r="A24">
         <v>25</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>-7.6999999999999999E-2</v>
       </c>
       <c r="C24" s="1">
-        <v>152115</v>
-      </c>
-      <c r="D24">
+        <v>15.211499999999999</v>
+      </c>
+      <c r="D24" s="2">
         <v>7.7549999999999994E-2</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>12.1</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>13</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>14.1</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>15.2</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>16.399999999999999</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>17.8</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <v>19.2</v>
       </c>
     </row>
@@ -1726,34 +1740,34 @@
       <c r="A25">
         <v>26</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>-8.9399999999999993E-2</v>
       </c>
       <c r="C25" s="1">
-        <v>152693</v>
-      </c>
-      <c r="D25">
+        <v>15.269299999999999</v>
+      </c>
+      <c r="D25" s="2">
         <v>7.7670000000000003E-2</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>12.1</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>13.1</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>14.1</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>15.3</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>16.5</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
         <v>19.3</v>
       </c>
     </row>
@@ -1761,34 +1775,34 @@
       <c r="A26">
         <v>27</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>-0.1014</v>
       </c>
       <c r="C26" s="1">
-        <v>153259</v>
-      </c>
-      <c r="D26">
+        <v>15.325900000000001</v>
+      </c>
+      <c r="D26" s="2">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>12.2</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>13.1</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>14.2</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>15.3</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>16.600000000000001</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <v>19.399999999999999</v>
       </c>
     </row>
@@ -1796,34 +1810,34 @@
       <c r="A27">
         <v>28</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>-0.1132</v>
       </c>
       <c r="C27" s="1">
-        <v>153808</v>
-      </c>
-      <c r="D27">
+        <v>15.380800000000001</v>
+      </c>
+      <c r="D27" s="2">
         <v>7.7939999999999995E-2</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>12.2</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>13.2</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>14.2</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>15.4</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <v>16.600000000000001</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>18</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <v>19.5</v>
       </c>
     </row>
@@ -1831,34 +1845,34 @@
       <c r="A28">
         <v>29</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>-0.12479999999999999</v>
       </c>
       <c r="C28" s="1">
-        <v>154336</v>
-      </c>
-      <c r="D28">
+        <v>15.4336</v>
+      </c>
+      <c r="D28" s="2">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>12.3</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>13.2</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>14.3</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <v>15.4</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <v>16.7</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>18.100000000000001</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <v>19.600000000000001</v>
       </c>
     </row>
@@ -1866,34 +1880,34 @@
       <c r="A29">
         <v>30</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>-0.13600000000000001</v>
       </c>
       <c r="C29" s="1">
-        <v>154839</v>
-      </c>
-      <c r="D29">
+        <v>15.4839</v>
+      </c>
+      <c r="D29" s="2">
         <v>7.8270000000000006E-2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>12.3</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>13.3</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>14.3</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <v>15.5</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <v>16.8</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>18.100000000000001</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="3">
         <v>19.7</v>
       </c>
     </row>
@@ -1901,34 +1915,34 @@
       <c r="A30">
         <v>31</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>-0.14699999999999999</v>
       </c>
       <c r="C30" s="1">
-        <v>155317</v>
-      </c>
-      <c r="D30">
+        <v>15.531700000000001</v>
+      </c>
+      <c r="D30" s="2">
         <v>7.8460000000000002E-2</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>12.3</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>13.3</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>14.4</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>15.5</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <v>16.8</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="3">
         <v>18.2</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="3">
         <v>19.7</v>
       </c>
     </row>
@@ -1936,34 +1950,34 @@
       <c r="A31">
         <v>32</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>-0.1578</v>
       </c>
       <c r="C31" s="1">
-        <v>155771</v>
-      </c>
-      <c r="D31">
+        <v>15.5771</v>
+      </c>
+      <c r="D31" s="2">
         <v>7.8659999999999994E-2</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>12.4</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>13.3</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>14.4</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <v>15.6</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <v>16.899999999999999</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <v>18.3</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="3">
         <v>19.8</v>
       </c>
     </row>
@@ -1971,34 +1985,34 @@
       <c r="A32">
         <v>33</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>-0.16839999999999999</v>
       </c>
       <c r="C32" s="1">
-        <v>156201</v>
-      </c>
-      <c r="D32">
+        <v>15.620100000000001</v>
+      </c>
+      <c r="D32" s="2">
         <v>7.8869999999999996E-2</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>12.4</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>13.4</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>14.4</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <v>15.6</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <v>16.899999999999999</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>18.3</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <v>19.899999999999999</v>
       </c>
     </row>
@@ -2006,34 +2020,34 @@
       <c r="A33">
         <v>34</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>-0.17879999999999999</v>
       </c>
       <c r="C33" s="1">
-        <v>156611</v>
-      </c>
-      <c r="D33">
+        <v>15.661099999999999</v>
+      </c>
+      <c r="D33" s="2">
         <v>7.9089999999999994E-2</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>12.4</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>13.4</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>14.5</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <v>15.7</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <v>17</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <v>18.399999999999999</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
         <v>20</v>
       </c>
     </row>
@@ -2041,34 +2055,34 @@
       <c r="A34">
         <v>35</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>-0.189</v>
       </c>
       <c r="C34" s="1">
-        <v>157003</v>
-      </c>
-      <c r="D34">
+        <v>15.7003</v>
+      </c>
+      <c r="D34" s="2">
         <v>7.9329999999999998E-2</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>12.4</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>13.4</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>14.5</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <v>15.7</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="3">
         <v>17</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="3">
         <v>18.399999999999999</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="3">
         <v>20</v>
       </c>
     </row>
@@ -2076,34 +2090,34 @@
       <c r="A35">
         <v>36</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>-0.19889999999999999</v>
       </c>
       <c r="C35" s="1">
-        <v>157380</v>
-      </c>
-      <c r="D35">
+        <v>15.738</v>
+      </c>
+      <c r="D35" s="2">
         <v>7.9560000000000006E-2</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>12.5</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>13.5</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>14.5</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="3">
         <v>15.7</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="3">
         <v>17.100000000000001</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="3">
         <v>18.5</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="3">
         <v>20.100000000000001</v>
       </c>
     </row>
@@ -2111,34 +2125,34 @@
       <c r="A36">
         <v>37</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>-0.2087</v>
       </c>
       <c r="C36" s="1">
-        <v>157745</v>
-      </c>
-      <c r="D36">
+        <v>15.7745</v>
+      </c>
+      <c r="D36" s="2">
         <v>7.9810000000000006E-2</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>12.5</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>13.5</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>14.6</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="3">
         <v>15.8</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="3">
         <v>17.100000000000001</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="3">
         <v>18.600000000000001</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="3">
         <v>20.2</v>
       </c>
     </row>
@@ -2146,34 +2160,34 @@
       <c r="A37">
         <v>38</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>-0.21840000000000001</v>
       </c>
       <c r="C37" s="1">
-        <v>158101</v>
-      </c>
-      <c r="D37">
+        <v>15.8101</v>
+      </c>
+      <c r="D37" s="2">
         <v>8.0060000000000006E-2</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>12.5</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>13.5</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
         <v>14.6</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="3">
         <v>15.8</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="3">
         <v>17.100000000000001</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="3">
         <v>18.600000000000001</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="3">
         <v>20.2</v>
       </c>
     </row>
@@ -2181,34 +2195,34 @@
       <c r="A38">
         <v>39</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>-0.2278</v>
       </c>
       <c r="C38" s="1">
-        <v>158450</v>
-      </c>
-      <c r="D38">
+        <v>15.845000000000001</v>
+      </c>
+      <c r="D38" s="2">
         <v>8.0320000000000003E-2</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>12.5</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>13.5</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
         <v>14.6</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
         <v>15.8</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="3">
         <v>17.2</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="3">
         <v>18.7</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="3">
         <v>20.3</v>
       </c>
     </row>
@@ -2216,34 +2230,34 @@
       <c r="A39">
         <v>40</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>-0.23719999999999999</v>
       </c>
       <c r="C39" s="1">
-        <v>158793</v>
-      </c>
-      <c r="D39">
+        <v>15.879300000000001</v>
+      </c>
+      <c r="D39" s="2">
         <v>8.0579999999999999E-2</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>12.6</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>13.6</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="3">
         <v>14.7</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="3">
         <v>15.9</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="3">
         <v>17.2</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="3">
         <v>18.7</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="3">
         <v>20.399999999999999</v>
       </c>
     </row>
@@ -2251,34 +2265,34 @@
       <c r="A40">
         <v>41</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>-0.24629999999999999</v>
       </c>
       <c r="C40" s="1">
-        <v>159132</v>
-      </c>
-      <c r="D40">
+        <v>15.9132</v>
+      </c>
+      <c r="D40" s="2">
         <v>8.0850000000000005E-2</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>12.6</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>13.6</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="3">
         <v>14.7</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="3">
         <v>15.9</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="3">
         <v>17.3</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="3">
         <v>18.8</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="3">
         <v>20.399999999999999</v>
       </c>
     </row>
@@ -2286,34 +2300,34 @@
       <c r="A41">
         <v>42</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>-0.25530000000000003</v>
       </c>
       <c r="C41" s="1">
-        <v>159467</v>
-      </c>
-      <c r="D41">
+        <v>15.9467</v>
+      </c>
+      <c r="D41" s="2">
         <v>8.1119999999999998E-2</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>12.6</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>13.6</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="3">
         <v>14.7</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="3">
         <v>15.9</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="3">
         <v>17.3</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="3">
         <v>18.8</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="3">
         <v>20.5</v>
       </c>
     </row>
@@ -2321,34 +2335,34 @@
       <c r="A42">
         <v>43</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>-0.26419999999999999</v>
       </c>
       <c r="C42" s="1">
-        <v>159797</v>
-      </c>
-      <c r="D42">
+        <v>15.979699999999999</v>
+      </c>
+      <c r="D42" s="2">
         <v>8.1390000000000004E-2</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>12.6</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>13.6</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="3">
         <v>14.7</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="3">
         <v>16</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="3">
         <v>17.399999999999999</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="3">
         <v>18.899999999999999</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="3">
         <v>20.6</v>
       </c>
     </row>
@@ -2356,34 +2370,34 @@
       <c r="A43">
         <v>44</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>-0.27300000000000002</v>
       </c>
       <c r="C43" s="1">
-        <v>160124</v>
-      </c>
-      <c r="D43">
+        <v>16.0124</v>
+      </c>
+      <c r="D43" s="2">
         <v>8.1659999999999996E-2</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>12.6</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>13.6</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="3">
         <v>14.8</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="3">
         <v>16</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="3">
         <v>17.399999999999999</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="3">
         <v>18.899999999999999</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="3">
         <v>20.6</v>
       </c>
     </row>
@@ -2391,34 +2405,34 @@
       <c r="A44">
         <v>45</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>-0.28160000000000002</v>
       </c>
       <c r="C44" s="1">
-        <v>160447</v>
-      </c>
-      <c r="D44">
+        <v>16.044699999999999</v>
+      </c>
+      <c r="D44" s="2">
         <v>8.1939999999999999E-2</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>12.7</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <v>13.7</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="3">
         <v>14.8</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="3">
         <v>16</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="3">
         <v>17.399999999999999</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="3">
         <v>19</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="3">
         <v>20.7</v>
       </c>
     </row>
@@ -2426,34 +2440,34 @@
       <c r="A45">
         <v>46</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>-0.29010000000000002</v>
       </c>
       <c r="C45" s="1">
-        <v>160767</v>
-      </c>
-      <c r="D45">
+        <v>16.076699999999999</v>
+      </c>
+      <c r="D45" s="2">
         <v>8.2220000000000001E-2</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>12.7</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>13.7</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="3">
         <v>14.8</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="3">
         <v>17.5</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="3">
         <v>19</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="3">
         <v>20.8</v>
       </c>
     </row>
@@ -2461,34 +2475,34 @@
       <c r="A46">
         <v>47</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>-0.29849999999999999</v>
       </c>
       <c r="C46" s="1">
-        <v>161085</v>
-      </c>
-      <c r="D46">
+        <v>16.108499999999999</v>
+      </c>
+      <c r="D46" s="2">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>12.7</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <v>13.7</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="3">
         <v>14.8</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="3">
         <v>17.5</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="3">
         <v>19.100000000000001</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="3">
         <v>20.8</v>
       </c>
     </row>
@@ -2496,34 +2510,34 @@
       <c r="A47">
         <v>48</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>-0.30669999999999997</v>
       </c>
       <c r="C47" s="1">
-        <v>161400</v>
-      </c>
-      <c r="D47">
+        <v>16.14</v>
+      </c>
+      <c r="D47" s="2">
         <v>8.2780000000000006E-2</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>12.7</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>13.7</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="3">
         <v>14.9</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="3">
         <v>19.100000000000001</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="3">
         <v>20.9</v>
       </c>
     </row>
@@ -2531,34 +2545,34 @@
       <c r="A48">
         <v>49</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>-0.31490000000000001</v>
       </c>
       <c r="C48" s="1">
-        <v>161714</v>
-      </c>
-      <c r="D48">
+        <v>16.171399999999998</v>
+      </c>
+      <c r="D48" s="2">
         <v>8.3070000000000005E-2</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>12.7</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>13.8</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="3">
         <v>14.9</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="3">
         <v>16.2</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="3">
         <v>19.2</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="3">
         <v>21</v>
       </c>
     </row>
@@ -2566,34 +2580,34 @@
       <c r="A49">
         <v>50</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>-0.32290000000000002</v>
       </c>
       <c r="C49" s="1">
-        <v>162027</v>
-      </c>
-      <c r="D49">
+        <v>16.2027</v>
+      </c>
+      <c r="D49" s="2">
         <v>8.3349999999999994E-2</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>12.7</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>13.8</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="3">
         <v>14.9</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="3">
         <v>16.2</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="3">
         <v>19.2</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="3">
         <v>21</v>
       </c>
     </row>
@@ -2601,34 +2615,34 @@
       <c r="A50">
         <v>51</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>-0.33090000000000003</v>
       </c>
       <c r="C50" s="1">
-        <v>162340</v>
-      </c>
-      <c r="D50">
+        <v>16.234000000000002</v>
+      </c>
+      <c r="D50" s="2">
         <v>8.3640000000000006E-2</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>12.8</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>13.8</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="3">
         <v>14.9</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="3">
         <v>16.2</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="3">
         <v>17.7</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="3">
         <v>19.3</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="3">
         <v>21.1</v>
       </c>
     </row>
@@ -2636,34 +2650,34 @@
       <c r="A51">
         <v>52</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>-0.3387</v>
       </c>
       <c r="C51" s="1">
-        <v>162654</v>
-      </c>
-      <c r="D51">
+        <v>16.2654</v>
+      </c>
+      <c r="D51" s="2">
         <v>8.3919999999999995E-2</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>12.8</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>13.8</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="3">
         <v>15</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="3">
         <v>16.3</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="3">
         <v>17.7</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="3">
         <v>19.3</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="3">
         <v>21.2</v>
       </c>
     </row>
@@ -2671,34 +2685,34 @@
       <c r="A52">
         <v>53</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>-0.34639999999999999</v>
       </c>
       <c r="C52" s="1">
-        <v>162968</v>
-      </c>
-      <c r="D52">
+        <v>16.296800000000001</v>
+      </c>
+      <c r="D52" s="2">
         <v>8.4209999999999993E-2</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>12.8</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
         <v>13.8</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="3">
         <v>15</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="3">
         <v>16.3</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="3">
         <v>17.8</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="3">
         <v>19.399999999999999</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="3">
         <v>21.2</v>
       </c>
     </row>
@@ -2706,34 +2720,34 @@
       <c r="A53">
         <v>54</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>-0.35410000000000003</v>
       </c>
       <c r="C53" s="1">
-        <v>163283</v>
-      </c>
-      <c r="D53">
+        <v>16.328299999999999</v>
+      </c>
+      <c r="D53" s="2">
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>12.8</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
         <v>13.9</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="3">
         <v>15</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="3">
         <v>16.3</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="3">
         <v>17.8</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="3">
         <v>19.399999999999999</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="3">
         <v>21.3</v>
       </c>
     </row>
@@ -2741,34 +2755,34 @@
       <c r="A54">
         <v>55</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>-0.36159999999999998</v>
       </c>
       <c r="C54" s="1">
-        <v>163599</v>
-      </c>
-      <c r="D54">
+        <v>16.3599</v>
+      </c>
+      <c r="D54" s="2">
         <v>8.4790000000000004E-2</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>12.8</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
         <v>13.9</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="3">
         <v>15</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="3">
         <v>16.399999999999999</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="3">
         <v>17.8</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="3">
         <v>19.5</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="3">
         <v>21.4</v>
       </c>
     </row>
@@ -2776,34 +2790,34 @@
       <c r="A55">
         <v>56</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>-0.36909999999999998</v>
       </c>
       <c r="C55" s="1">
-        <v>163916</v>
-      </c>
-      <c r="D55">
+        <v>16.3916</v>
+      </c>
+      <c r="D55" s="2">
         <v>8.5080000000000003E-2</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>12.8</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="3">
         <v>13.9</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="3">
         <v>15.1</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="3">
         <v>16.399999999999999</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="3">
         <v>19.5</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="3">
         <v>21.4</v>
       </c>
     </row>
@@ -2811,34 +2825,34 @@
       <c r="A56">
         <v>57</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>-0.3765</v>
       </c>
       <c r="C56" s="1">
-        <v>164233</v>
-      </c>
-      <c r="D56">
+        <v>16.423300000000001</v>
+      </c>
+      <c r="D56" s="2">
         <v>8.5370000000000001E-2</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <v>12.9</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="3">
         <v>13.9</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="3">
         <v>15.1</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="3">
         <v>16.399999999999999</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="3">
         <v>19.600000000000001</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="3">
         <v>21.5</v>
       </c>
     </row>
@@ -2846,34 +2860,34 @@
       <c r="A57">
         <v>58</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>-0.38379999999999997</v>
       </c>
       <c r="C57" s="1">
-        <v>164551</v>
-      </c>
-      <c r="D57">
+        <v>16.455100000000002</v>
+      </c>
+      <c r="D57" s="2">
         <v>8.566E-2</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <v>12.9</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="3">
         <v>13.9</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="3">
         <v>15.1</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="3">
         <v>16.5</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="3">
         <v>18</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="3">
         <v>19.600000000000001</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="3">
         <v>21.6</v>
       </c>
     </row>
@@ -2881,34 +2895,34 @@
       <c r="A58">
         <v>59</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>-0.39100000000000001</v>
       </c>
       <c r="C58" s="1">
-        <v>164871</v>
-      </c>
-      <c r="D58">
+        <v>16.487100000000002</v>
+      </c>
+      <c r="D58" s="2">
         <v>8.5949999999999999E-2</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>12.9</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="3">
         <v>14</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="3">
         <v>15.2</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="3">
         <v>16.5</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="3">
         <v>18</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="3">
         <v>19.7</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="3">
         <v>21.6</v>
       </c>
     </row>
@@ -2916,38 +2930,39 @@
       <c r="A59">
         <v>60</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>-0.39810000000000001</v>
       </c>
       <c r="C59" s="1">
-        <v>165191</v>
-      </c>
-      <c r="D59">
+        <v>16.519100000000002</v>
+      </c>
+      <c r="D59" s="2">
         <v>8.6239999999999997E-2</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <v>12.9</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="3">
         <v>14</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="3">
         <v>15.2</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="3">
         <v>16.5</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="3">
         <v>18</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="3">
         <v>19.8</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="3">
         <v>21.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>